--- a/Practica-2/Ex1/GaussSeidelIteracions.xlsx
+++ b/Practica-2/Ex1/GaussSeidelIteracions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Matlab\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E054D9B4-7370-4FCB-BAE3-87288088F089}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F80D40A-4E86-4661-891A-D00DD375E807}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10140" xr2:uid="{14239FEC-215B-44BE-BFAF-C3B54794C5D4}"/>
   </bookViews>
@@ -251,70 +251,70 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
